--- a/Running projects/State Life Insurance, Karachi/PO/002- Purchase order- for copper pipe Crescent corp.xlsx
+++ b/Running projects/State Life Insurance, Karachi/PO/002- Purchase order- for copper pipe Crescent corp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\State Life Insurance, Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBB4425-3E89-48D5-A49C-2E825FF3C423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6DA70-F5BB-407A-83BE-FF02D4DFBD92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>S No.</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>M/S Crescent corporation</t>
-  </si>
-  <si>
-    <t>Discount 10.82%</t>
   </si>
   <si>
     <t>Sales Tax 18%</t>
@@ -554,40 +551,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -596,24 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1140,6 +1137,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>58461</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>220297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F396036-84B1-4F51-B589-E4BD5AEFD5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="0"/>
+          <a:ext cx="9392961" cy="8754697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1457,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1533,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1"/>
       <c r="F13" s="8"/>
@@ -1503,22 +1544,22 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -1529,28 +1570,28 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1577,7 +1618,7 @@
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -1593,20 +1634,20 @@
         <v>1</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10">
-        <v>242.667</v>
+        <v>4570</v>
       </c>
       <c r="F26" s="19">
         <f>E26*C26</f>
-        <v>77653.440000000002</v>
+        <v>77690</v>
       </c>
     </row>
     <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1614,20 +1655,20 @@
         <v>2</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="10">
-        <v>382.851</v>
+        <v>7210</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" ref="F27:F33" si="0">E27*C27</f>
-        <v>31776.633000000002</v>
+        <v>28840</v>
       </c>
     </row>
     <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1635,20 +1676,20 @@
         <v>3</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="10">
-        <v>553.30200000000002</v>
+        <v>10420</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
-        <v>184249.56600000002</v>
+        <v>187560</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1656,20 +1697,20 @@
         <v>4</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="10">
-        <v>702.51299999999992</v>
+        <v>13230</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
-        <v>206538.82199999999</v>
+        <v>198450</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1677,20 +1718,20 @@
         <v>5</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="10">
-        <v>930.6</v>
+        <v>19470</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>35362.800000000003</v>
+        <v>38940</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,20 +1739,20 @@
         <v>6</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="10">
-        <v>1229.7959999999998</v>
+        <v>23160</v>
       </c>
       <c r="F31" s="19">
         <f t="shared" si="0"/>
-        <v>18446.939999999999</v>
+        <v>23160</v>
       </c>
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,20 +1760,20 @@
         <v>7</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="10">
-        <v>1281</v>
+        <v>26800</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
-        <v>57645</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1740,109 +1781,110 @@
         <v>8</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="10">
-        <v>1742</v>
+        <v>36440</v>
       </c>
       <c r="F33" s="19">
         <f t="shared" si="0"/>
-        <v>360594</v>
+        <v>400840</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="14">
         <f>SUM(F26:F33)</f>
-        <v>972267.201</v>
+        <v>1009080</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="A35" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="15">
-        <v>437005</v>
+        <f>F34*10%</f>
+        <v>100908</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="16">
         <f>F34-F35</f>
-        <v>535262.201</v>
+        <v>908172</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="A37" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="16">
         <f>F36*18%</f>
-        <v>96347.196179999999</v>
+        <v>163470.96</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="16">
         <f>F37+F36</f>
-        <v>631609.39717999997</v>
+        <v>1071642.96</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78953A4D-2A0C-4776-B286-232C1BB2DD8E}">
   <dimension ref="C4:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1887,7 +1929,7 @@
   <sheetData>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1940,7 @@
         <v>1004</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10">
         <v>242.667</v>
@@ -1935,7 +1977,7 @@
         <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="10">
         <v>382.851</v>
@@ -1968,7 +2010,7 @@
         <v>1056</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="10">
         <v>553.30200000000002</v>
@@ -2001,7 +2043,7 @@
         <v>546</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="10">
         <v>702.51299999999992</v>
@@ -2034,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="10">
         <v>863.93700000000001</v>
@@ -2061,13 +2103,13 @@
     </row>
     <row r="11" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10">
         <v>930.6</v>
@@ -2096,7 +2138,7 @@
         <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="10">
         <v>1229.7959999999998</v>
@@ -2123,13 +2165,13 @@
     </row>
     <row r="13" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="10">
         <v>1281</v>
@@ -2158,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10">
         <v>1668.402</v>
@@ -2185,13 +2227,13 @@
     </row>
     <row r="15" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="10">
         <v>1742</v>
@@ -2214,13 +2256,13 @@
     </row>
     <row r="16" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="10">
         <v>1963</v>
@@ -2253,20 +2295,20 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="48">
+      <c r="C23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="35">
         <v>0</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="50">
+      <c r="E23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="37">
         <v>2910</v>
       </c>
       <c r="G23" s="15">
@@ -2275,36 +2317,36 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="35">
+        <v>17</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="48">
-        <v>17</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="50">
+      <c r="F24" s="37">
         <v>4570</v>
       </c>
       <c r="G24" s="15">
         <f>F24*D24</f>
         <v>77690</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="31">
         <f>F24*19</f>
         <v>86830</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="31">
         <f>I24*1.18</f>
         <v>102459.4</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="31">
         <f>J24*0.9</f>
         <v>92213.459999999992</v>
       </c>
       <c r="M24">
-        <f>D24/20</f>
+        <f t="shared" ref="M24:M34" si="4">D24/20</f>
         <v>0.85</v>
       </c>
       <c r="N24">
@@ -2313,423 +2355,423 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="37">
+        <v>7210</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" ref="G25:G34" si="5">F25*D25</f>
+        <v>28840</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" ref="I25:I34" si="6">F25*19</f>
+        <v>136990</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" ref="J25:J34" si="7">I25*1.18</f>
+        <v>161648.19999999998</v>
+      </c>
+      <c r="K25" s="31">
+        <f t="shared" ref="K25:K34" si="8">J25*0.9</f>
+        <v>145483.37999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N34" si="9">M25*19</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="48">
-        <v>4</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="50">
-        <v>7210</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" ref="G25:G34" si="4">F25*D25</f>
-        <v>28840</v>
-      </c>
-      <c r="I25" s="41">
-        <f t="shared" ref="I25:I34" si="5">F25*19</f>
-        <v>136990</v>
-      </c>
-      <c r="J25" s="41">
-        <f t="shared" ref="J25:J34" si="6">I25*1.18</f>
-        <v>161648.19999999998</v>
-      </c>
-      <c r="K25" s="41">
-        <f t="shared" ref="K25:K34" si="7">J25*0.9</f>
-        <v>145483.37999999998</v>
-      </c>
-      <c r="M25">
-        <f>D25/20</f>
-        <v>0.2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N34" si="8">M25*19</f>
-        <v>3.8000000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="47" t="s">
+      <c r="D26" s="35">
+        <v>18</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="37">
+        <v>10420</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="5"/>
+        <v>187560</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" si="6"/>
+        <v>197980</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" si="7"/>
+        <v>233616.4</v>
+      </c>
+      <c r="K26" s="31">
+        <f t="shared" si="8"/>
+        <v>210254.76</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="48">
-        <v>18</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="50">
-        <v>10420</v>
-      </c>
-      <c r="G26" s="15">
+      <c r="D27" s="35">
+        <v>15</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="37">
+        <v>13230</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="5"/>
+        <v>198450</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="6"/>
+        <v>251370</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" si="7"/>
+        <v>296616.59999999998</v>
+      </c>
+      <c r="K27" s="31">
+        <f t="shared" si="8"/>
+        <v>266954.94</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>187560</v>
-      </c>
-      <c r="I26" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="37">
+        <v>16270</v>
+      </c>
+      <c r="G28" s="15">
         <f t="shared" si="5"/>
-        <v>197980</v>
-      </c>
-      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
         <f t="shared" si="6"/>
-        <v>233616.4</v>
-      </c>
-      <c r="K26" s="41">
+        <v>309130</v>
+      </c>
+      <c r="J28" s="31">
         <f t="shared" si="7"/>
-        <v>210254.76</v>
-      </c>
-      <c r="M26">
-        <f>D26/20</f>
-        <v>0.9</v>
-      </c>
-      <c r="N26">
+        <v>364773.39999999997</v>
+      </c>
+      <c r="K28" s="31">
         <f t="shared" si="8"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="48">
-        <v>15</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="50">
-        <v>13230</v>
-      </c>
-      <c r="G27" s="15">
-        <f t="shared" si="4"/>
-        <v>198450</v>
-      </c>
-      <c r="I27" s="41">
-        <f t="shared" si="5"/>
-        <v>251370</v>
-      </c>
-      <c r="J27" s="41">
-        <f t="shared" si="6"/>
-        <v>296616.59999999998</v>
-      </c>
-      <c r="K27" s="41">
-        <f t="shared" si="7"/>
-        <v>266954.94</v>
-      </c>
-      <c r="M27">
-        <f>D27/20</f>
-        <v>0.75</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="50">
-        <v>16270</v>
-      </c>
-      <c r="G28" s="15">
+        <v>328296.06</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="41">
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="35">
+        <v>2</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="38">
+        <v>17525</v>
+      </c>
+      <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>309130</v>
-      </c>
-      <c r="J28" s="41">
+        <v>35050</v>
+      </c>
+      <c r="I29" s="31">
         <f t="shared" si="6"/>
-        <v>364773.39999999997</v>
-      </c>
-      <c r="K28" s="41">
+        <v>332975</v>
+      </c>
+      <c r="J29" s="31">
         <f t="shared" si="7"/>
-        <v>328296.06</v>
-      </c>
-      <c r="M28">
-        <f>D28/20</f>
+        <v>392910.5</v>
+      </c>
+      <c r="K29" s="31">
+        <f t="shared" si="8"/>
+        <v>353619.45</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="37">
+        <v>23160</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="5"/>
+        <v>23160</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="6"/>
+        <v>440040</v>
+      </c>
+      <c r="J30" s="31">
+        <f t="shared" si="7"/>
+        <v>519247.19999999995</v>
+      </c>
+      <c r="K30" s="31">
+        <f t="shared" si="8"/>
+        <v>467322.48</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="35">
+        <v>2</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="38">
+        <v>24119</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="5"/>
+        <v>48238</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="6"/>
+        <v>458261</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" si="7"/>
+        <v>540747.98</v>
+      </c>
+      <c r="K31" s="31">
+        <f t="shared" si="8"/>
+        <v>486673.18199999997</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="37">
+        <v>31420</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="I32" s="31">
+        <f t="shared" si="6"/>
+        <v>596980</v>
+      </c>
+      <c r="J32" s="31">
+        <f t="shared" si="7"/>
+        <v>704436.39999999991</v>
+      </c>
+      <c r="K32" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="48">
-        <v>2</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="51">
-        <v>17525</v>
-      </c>
-      <c r="G29" s="15">
-        <f t="shared" si="4"/>
-        <v>35050</v>
-      </c>
-      <c r="I29" s="41">
-        <f t="shared" si="5"/>
-        <v>332975</v>
-      </c>
-      <c r="J29" s="41">
-        <f t="shared" si="6"/>
-        <v>392910.5</v>
-      </c>
-      <c r="K29" s="41">
-        <f t="shared" si="7"/>
-        <v>353619.45</v>
-      </c>
-      <c r="M29">
-        <f>D29/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="8"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="48">
-        <v>1</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="50">
-        <v>23160</v>
-      </c>
-      <c r="G30" s="15">
-        <f t="shared" si="4"/>
-        <v>23160</v>
-      </c>
-      <c r="I30" s="41">
-        <f t="shared" si="5"/>
-        <v>440040</v>
-      </c>
-      <c r="J30" s="41">
-        <f t="shared" si="6"/>
-        <v>519247.19999999995</v>
-      </c>
-      <c r="K30" s="41">
-        <f t="shared" si="7"/>
-        <v>467322.48</v>
-      </c>
-      <c r="M30">
-        <f>D30/20</f>
-        <v>0.05</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="48">
-        <v>2</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="51">
-        <v>24119</v>
-      </c>
-      <c r="G31" s="15">
-        <f t="shared" si="4"/>
-        <v>48238</v>
-      </c>
-      <c r="I31" s="41">
-        <f t="shared" si="5"/>
-        <v>458261</v>
-      </c>
-      <c r="J31" s="41">
-        <f t="shared" si="6"/>
-        <v>540747.98</v>
-      </c>
-      <c r="K31" s="41">
-        <f t="shared" si="7"/>
-        <v>486673.18199999997</v>
-      </c>
-      <c r="M31">
-        <f>D31/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="50">
-        <v>31420</v>
-      </c>
-      <c r="G32" s="15">
+        <v>633992.75999999989</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" s="41">
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="35">
+        <v>11</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="38">
+        <v>32797</v>
+      </c>
+      <c r="G33" s="15">
         <f t="shared" si="5"/>
-        <v>596980</v>
-      </c>
-      <c r="J32" s="41">
+        <v>360767</v>
+      </c>
+      <c r="I33" s="31">
         <f t="shared" si="6"/>
-        <v>704436.39999999991</v>
-      </c>
-      <c r="K32" s="41">
+        <v>623143</v>
+      </c>
+      <c r="J33" s="31">
         <f t="shared" si="7"/>
-        <v>633992.75999999989</v>
-      </c>
-      <c r="M32">
-        <f>D32/20</f>
+        <v>735308.74</v>
+      </c>
+      <c r="K33" s="31">
+        <f t="shared" si="8"/>
+        <v>661777.86600000004</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>10.450000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="37">
+        <v>41100</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="I34" s="31">
+        <f t="shared" si="6"/>
+        <v>780900</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="7"/>
+        <v>921462</v>
+      </c>
+      <c r="K34" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="48">
-        <v>11</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="51">
-        <v>32797</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" si="4"/>
-        <v>360767</v>
-      </c>
-      <c r="I33" s="41">
-        <f t="shared" si="5"/>
-        <v>623143</v>
-      </c>
-      <c r="J33" s="41">
-        <f t="shared" si="6"/>
-        <v>735308.74</v>
-      </c>
-      <c r="K33" s="41">
-        <f t="shared" si="7"/>
-        <v>661777.86600000004</v>
-      </c>
-      <c r="M33">
-        <f>D33/20</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
-        <v>10.450000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="50">
-        <v>41100</v>
-      </c>
-      <c r="G34" s="15">
+        <v>829315.8</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I34" s="41">
-        <f t="shared" si="5"/>
-        <v>780900</v>
-      </c>
-      <c r="J34" s="41">
-        <f t="shared" si="6"/>
-        <v>921462</v>
-      </c>
-      <c r="K34" s="41">
-        <f t="shared" si="7"/>
-        <v>829315.8</v>
-      </c>
-      <c r="M34">
-        <f>D34/20</f>
+      <c r="N34">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46">
+      <c r="C35" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="33">
         <f>SUM(G23:G34)</f>
         <v>959755</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46">
+      <c r="C36" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="33">
         <f>G35*10%</f>
         <v>95975.5</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46">
+      <c r="C37" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="33">
         <f>G35-G36</f>
         <v>863779.5</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46">
+      <c r="C38" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="33">
         <f>G37*18%</f>
         <v>155480.31</v>
       </c>
@@ -2742,13 +2784,13 @@
       </c>
     </row>
     <row r="39" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46">
+      <c r="C39" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="33">
         <f>G38+G37</f>
         <v>1019259.81</v>
       </c>
@@ -2761,7 +2803,7 @@
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="42"/>
+      <c r="C40" s="32"/>
       <c r="K40">
         <v>38700</v>
       </c>
@@ -2771,20 +2813,20 @@
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="42"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="42"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="44" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4">
         <v>1740</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44" s="10">
         <v>242.667</v>
@@ -2796,109 +2838,109 @@
     </row>
     <row r="45" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4">
         <v>340</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="10">
         <v>382.851</v>
       </c>
       <c r="G45" s="19">
-        <f t="shared" ref="G45:G54" si="9">F45*D45</f>
+        <f t="shared" ref="G45:G54" si="10">F45*D45</f>
         <v>130169.34</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4">
         <v>1560</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="10">
         <v>553.30200000000002</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>863151.12</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
         <v>1240</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="10">
         <v>702.51299999999992</v>
       </c>
       <c r="G47" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>871116.11999999988</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="4">
         <v>120</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="10">
         <v>863.93700000000001</v>
       </c>
       <c r="G48" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>103672.44</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="4">
         <v>200</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="10">
         <v>930.6</v>
       </c>
       <c r="G49" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>186120</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4">
         <v>240</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="10">
         <v>1229.7959999999998</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>295151.03999999998</v>
       </c>
       <c r="K50">
@@ -2915,19 +2957,19 @@
     </row>
     <row r="51" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4">
         <v>445</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="10">
         <v>1281</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>570045</v>
       </c>
       <c r="K51">
@@ -2944,19 +2986,19 @@
     </row>
     <row r="52" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="4">
         <v>160</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="10">
         <v>1668.402</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>266944.32</v>
       </c>
       <c r="K52">
@@ -2973,37 +3015,37 @@
     </row>
     <row r="53" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
         <v>280</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="10">
         <v>1742</v>
       </c>
       <c r="G53" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>487760</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="10">
         <v>1963</v>
       </c>
       <c r="G54" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
